--- a/data/Matrix.xlsx
+++ b/data/Matrix.xlsx
@@ -409,7 +409,7 @@
         <v>scaffold</v>
       </c>
       <c r="B1" t="str">
-        <v>campione</v>
+        <v>Sample</v>
       </c>
       <c r="C1" t="str">
         <v>Stress_failure</v>
